--- a/medicine/Autisme/Henry_Bond/Henry_Bond.xlsx
+++ b/medicine/Autisme/Henry_Bond/Henry_Bond.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Henry Bond (né le 13 juin 1966) est un écrivain, photographe et artiste visuel anglais[1] attaché à l'appropriation et au pastiche avec un intérêt particulier pour la surveillance, le voyeurisme, la psychanalyse freudienne et la criminalistique[2]. 
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Henry Bond (né le 13 juin 1966) est un écrivain, photographe et artiste visuel anglais attaché à l'appropriation et au pastiche avec un intérêt particulier pour la surveillance, le voyeurisme, la psychanalyse freudienne et la criminalistique. 
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Liminaire</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Grâce à son exposition East Country Yard Show (en), il a influencé la formation et le développement des Young British Artists ou YBAs[3] désignant l'ensemble d'artistes contemporain britanniques fondé à la fin des années 1980, sortant pour la plupart du Goldsmiths College à Londres comme Damien Hirst, Angela Bulloch et Liam Gillick[4].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Grâce à son exposition East Country Yard Show (en), il a influencé la formation et le développement des Young British Artists ou YBAs désignant l'ensemble d'artistes contemporain britanniques fondé à la fin des années 1980, sortant pour la plupart du Goldsmiths College à Londres comme Damien Hirst, Angela Bulloch et Liam Gillick.
 </t>
         </is>
       </c>
@@ -544,10 +558,50 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Éducation
-Bond est né à Upton Park, dans l'est de Londres en 1966 et a obtenu une licence en arts de la Goldsmiths, University of London en 1988[5] avec ses camarades Angela Bulloch, Ian Davenport, Anya Gallaccio, Gary Hume et Michael Landy[6]. Bond a obtenu une maîtrise en psychanalyse de l'Université du Middlesex à Hendon[7] où il avait comme professeur spécialiste de Lacan, Bernard Burgoyne[8]. Bond a reçu son doctorat de l'Université du Gloucestershire en 2007[9].
-Carrière
-En 2009, Henry Bond est nommé maître de conférences en photographie à l'université Kingston, poste qu'il occupe toujours en 2020[10].
+          <t>Éducation</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bond est né à Upton Park, dans l'est de Londres en 1966 et a obtenu une licence en arts de la Goldsmiths, University of London en 1988 avec ses camarades Angela Bulloch, Ian Davenport, Anya Gallaccio, Gary Hume et Michael Landy. Bond a obtenu une maîtrise en psychanalyse de l'Université du Middlesex à Hendon où il avait comme professeur spécialiste de Lacan, Bernard Burgoyne. Bond a reçu son doctorat de l'Université du Gloucestershire en 2007.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Henry_Bond</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Autisme/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Henry_Bond</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Biographie</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Carrière</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">En 2009, Henry Bond est nommé maître de conférences en photographie à l'université Kingston, poste qu'il occupe toujours en 2020.
 			East Country Yard Show (en)
 			Interiors Series, 2005
 			Exposition 'The Cult of the Street',   en 2011 en Suisse.
@@ -555,33 +609,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
         <is>
           <t>Henry_Bond</t>
         </is>
       </c>
-      <c r="C5" t="inlineStr">
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Autisme/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/Henry_Bond</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Vie privée</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Bond a un syndrome d'Asperger. Il a suivi à la fois une thérapie cognitivo-comportementale et une psychanalyse pour cette raison. Il a remis en question l'utilisation de la psychanalyse avec des enfants autistes en France. Bond est marié au marchand d'art Emily Tsingou, et ils vivent à Kensington (Londres) avec leur fille[11].
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Bond a un syndrome d'Asperger. Il a suivi à la fois une thérapie cognitivo-comportementale et une psychanalyse pour cette raison. Il a remis en question l'utilisation de la psychanalyse avec des enfants autistes en France. Bond est marié au marchand d'art Emily Tsingou, et ils vivent à Kensington (Londres) avec leur fille.
 </t>
         </is>
       </c>
